--- a/international/france/finance/FR/estimations/10_souverainete_resilience/10_souverainete_resilience.xlsx
+++ b/international/france/finance/FR/estimations/10_souverainete_resilience/10_souverainete_resilience.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Mesure</t>
   </si>
@@ -31,19 +31,25 @@
     <t>Total – Haute (M€)</t>
   </si>
   <si>
-    <t>Service civique universel revalorisé</t>
-  </si>
-  <si>
-    <t>Développement d’une Garde Territoriale Citoyenne</t>
-  </si>
-  <si>
-    <t>École nationale de la résilience</t>
-  </si>
-  <si>
-    <t>Veille éthique et lanceurs d’alerte</t>
-  </si>
-  <si>
-    <t>Plan communal de sécurisation solidaire</t>
+    <t>Moratoire sur les privatisations</t>
+  </si>
+  <si>
+    <t>Souveraineté alimentaire</t>
+  </si>
+  <si>
+    <t>Souveraineté énergétique</t>
+  </si>
+  <si>
+    <t>Souveraineté monétaire assumée</t>
+  </si>
+  <si>
+    <t>Numérique éthique &amp; outils publics</t>
+  </si>
+  <si>
+    <t>Refondation des traités</t>
+  </si>
+  <si>
+    <t>Renforcement du droit local</t>
   </si>
 </sst>
 </file>
@@ -401,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,16 +435,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>2250</v>
+        <v>600</v>
       </c>
       <c r="C2">
-        <v>750</v>
+        <v>200</v>
       </c>
       <c r="D2">
-        <v>1500</v>
+        <v>400</v>
       </c>
       <c r="E2">
-        <v>2250</v>
+        <v>600</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -446,16 +452,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="C3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="D3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="E3">
-        <v>1500</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -463,16 +469,16 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="C4">
         <v>400</v>
       </c>
       <c r="D4">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="E4">
-        <v>1200</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -480,16 +486,16 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="C5">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="D5">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E5">
-        <v>750</v>
+        <v>800</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -497,16 +503,50 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>1800</v>
+        <v>1300</v>
       </c>
       <c r="C6">
+        <v>300</v>
+      </c>
+      <c r="D6">
+        <v>1000</v>
+      </c>
+      <c r="E6">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
         <v>600</v>
       </c>
-      <c r="D6">
-        <v>1200</v>
-      </c>
-      <c r="E6">
-        <v>1800</v>
+      <c r="C7">
+        <v>200</v>
+      </c>
+      <c r="D7">
+        <v>400</v>
+      </c>
+      <c r="E7">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>1100</v>
+      </c>
+      <c r="C8">
+        <v>100</v>
+      </c>
+      <c r="D8">
+        <v>1000</v>
+      </c>
+      <c r="E8">
+        <v>1100</v>
       </c>
     </row>
   </sheetData>
